--- a/data/n2v/tables/model-1-1536-20230830-51.xlsx
+++ b/data/n2v/tables/model-1-1536-20230830-51.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -10360,7 +10360,7 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         </is>
       </c>
       <c r="C637" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         </is>
       </c>
       <c r="C649" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -12178,7 +12178,7 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -12286,7 +12286,7 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -12304,7 +12304,7 @@
         </is>
       </c>
       <c r="C660" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         </is>
       </c>
       <c r="C661" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -13258,7 +13258,7 @@
         </is>
       </c>
       <c r="C713" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         </is>
       </c>
       <c r="C721" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -13456,7 +13456,7 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         </is>
       </c>
       <c r="C733" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         </is>
       </c>
       <c r="C735" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         </is>
       </c>
       <c r="C745" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         </is>
       </c>
       <c r="C746" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         </is>
       </c>
       <c r="C759" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         </is>
       </c>
       <c r="C780" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         </is>
       </c>
       <c r="C781" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         </is>
       </c>
       <c r="C786" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         </is>
       </c>
       <c r="C790" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         </is>
       </c>
       <c r="C792" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         </is>
       </c>
       <c r="C795" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         </is>
       </c>
       <c r="C796" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         </is>
       </c>
       <c r="C806" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         </is>
       </c>
       <c r="C809" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         </is>
       </c>
       <c r="C810" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         </is>
       </c>
       <c r="C813" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         </is>
       </c>
       <c r="C814" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         </is>
       </c>
       <c r="C816" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         </is>
       </c>
       <c r="C817" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         </is>
       </c>
       <c r="C826" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         </is>
       </c>
       <c r="C832" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         </is>
       </c>
       <c r="C834" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         </is>
       </c>
       <c r="C837" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         </is>
       </c>
       <c r="C839" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         </is>
       </c>
       <c r="C856" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -15940,7 +15940,7 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         </is>
       </c>
       <c r="C864" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         </is>
       </c>
       <c r="C866" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         </is>
       </c>
       <c r="C870" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         </is>
       </c>
       <c r="C871" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         </is>
       </c>
       <c r="C872" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         </is>
       </c>
       <c r="C875" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         </is>
       </c>
       <c r="C897" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -16588,7 +16588,7 @@
         </is>
       </c>
       <c r="C898" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         </is>
       </c>
       <c r="C899" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         </is>
       </c>
       <c r="C911" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         </is>
       </c>
       <c r="C918" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -17002,7 +17002,7 @@
         </is>
       </c>
       <c r="C921" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         </is>
       </c>
       <c r="C926" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         </is>
       </c>
       <c r="C927" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="C929" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         </is>
       </c>
       <c r="C930" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         </is>
       </c>
       <c r="C943" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -17416,7 +17416,7 @@
         </is>
       </c>
       <c r="C944" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         </is>
       </c>
       <c r="C945" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         </is>
       </c>
       <c r="C948" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         </is>
       </c>
       <c r="C956" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         </is>
       </c>
       <c r="C962" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         </is>
       </c>
       <c r="C963" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         </is>
       </c>
       <c r="C965" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         </is>
       </c>
       <c r="C968" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -17866,7 +17866,7 @@
         </is>
       </c>
       <c r="C969" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         </is>
       </c>
       <c r="C970" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         </is>
       </c>
       <c r="C977" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -18118,7 +18118,7 @@
         </is>
       </c>
       <c r="C983" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         </is>
       </c>
       <c r="C984" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         </is>
       </c>
       <c r="C985" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         </is>
       </c>
       <c r="C986" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         </is>
       </c>
       <c r="C988" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         </is>
       </c>
       <c r="C991" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         </is>
       </c>
       <c r="C994" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -18352,7 +18352,7 @@
         </is>
       </c>
       <c r="C996" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
         </is>
       </c>
       <c r="C998" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -18442,7 +18442,7 @@
         </is>
       </c>
       <c r="C1001" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -18532,7 +18532,7 @@
         </is>
       </c>
       <c r="C1006" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         </is>
       </c>
       <c r="C1007" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         </is>
       </c>
       <c r="C1008" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         </is>
       </c>
       <c r="C1010" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         </is>
       </c>
       <c r="C1013" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         </is>
       </c>
       <c r="C1015" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         </is>
       </c>
       <c r="C1016" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         </is>
       </c>
       <c r="C1018" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         </is>
       </c>
       <c r="C1021" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         </is>
       </c>
       <c r="C1025" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         </is>
       </c>
       <c r="C1026" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         </is>
       </c>
       <c r="C1027" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         </is>
       </c>
       <c r="C1030" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         </is>
       </c>
       <c r="C1031" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         </is>
       </c>
       <c r="C1032" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
         </is>
       </c>
       <c r="C1035" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         </is>
       </c>
       <c r="C1037" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         </is>
       </c>
       <c r="C1038" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         </is>
       </c>
       <c r="C1039" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         </is>
       </c>
       <c r="C1042" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         </is>
       </c>
       <c r="C1043" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1044" t="inlineStr">
         <is>
@@ -19234,7 +19234,7 @@
         </is>
       </c>
       <c r="C1045" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         </is>
       </c>
       <c r="C1049" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1050" t="inlineStr">
         <is>
@@ -19342,7 +19342,7 @@
         </is>
       </c>
       <c r="C1051" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
@@ -19414,7 +19414,7 @@
         </is>
       </c>
       <c r="C1055" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1055" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         </is>
       </c>
       <c r="C1056" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1056" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         </is>
       </c>
       <c r="C1059" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1059" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         </is>
       </c>
       <c r="C1060" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1060" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         </is>
       </c>
       <c r="C1064" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1064" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         </is>
       </c>
       <c r="C1065" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1065" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         </is>
       </c>
       <c r="C1073" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1073" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         </is>
       </c>
       <c r="C1074" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1074" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         </is>
       </c>
       <c r="C1075" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1075" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         </is>
       </c>
       <c r="C1076" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1076" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="C1079" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1079" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1080" t="inlineStr">
         <is>
@@ -19882,7 +19882,7 @@
         </is>
       </c>
       <c r="C1081" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1081" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1084" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         </is>
       </c>
       <c r="C1087" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1087" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1088" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1089" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         </is>
       </c>
       <c r="C1090" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1090" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         </is>
       </c>
       <c r="C1091" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1091" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         </is>
       </c>
       <c r="C1093" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1093" t="inlineStr">
         <is>
@@ -20134,7 +20134,7 @@
         </is>
       </c>
       <c r="C1095" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1095" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         </is>
       </c>
       <c r="C1096" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1096" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         </is>
       </c>
       <c r="C1100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1100" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         </is>
       </c>
       <c r="C1101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1101" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         </is>
       </c>
       <c r="C1103" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1103" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         </is>
       </c>
       <c r="C1105" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1105" t="inlineStr">
         <is>
@@ -20332,7 +20332,7 @@
         </is>
       </c>
       <c r="C1106" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1106" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         </is>
       </c>
       <c r="C1107" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1107" t="inlineStr">
         <is>
@@ -20368,7 +20368,7 @@
         </is>
       </c>
       <c r="C1108" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1108" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="C1109" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1109" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         </is>
       </c>
       <c r="C1112" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1112" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         </is>
       </c>
       <c r="C1116" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1116" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         </is>
       </c>
       <c r="C1118" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1118" t="inlineStr">
         <is>
@@ -20566,7 +20566,7 @@
         </is>
       </c>
       <c r="C1119" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1119" t="inlineStr">
         <is>
@@ -20584,7 +20584,7 @@
         </is>
       </c>
       <c r="C1120" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1120" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         </is>
       </c>
       <c r="C1126" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1126" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
         </is>
       </c>
       <c r="C1128" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1128" t="inlineStr">
         <is>
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="C1129" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1129" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         </is>
       </c>
       <c r="C1130" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1130" t="inlineStr">
         <is>
@@ -20800,7 +20800,7 @@
         </is>
       </c>
       <c r="C1132" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1132" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         </is>
       </c>
       <c r="C1134" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1134" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         </is>
       </c>
       <c r="C1136" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1136" t="inlineStr">
         <is>
@@ -20908,7 +20908,7 @@
         </is>
       </c>
       <c r="C1138" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1138" t="inlineStr">
         <is>
@@ -20962,7 +20962,7 @@
         </is>
       </c>
       <c r="C1141" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1141" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         </is>
       </c>
       <c r="C1142" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1142" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         </is>
       </c>
       <c r="C1143" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1143" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         </is>
       </c>
       <c r="C1144" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1144" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         </is>
       </c>
       <c r="C1145" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1145" t="inlineStr">
         <is>
@@ -21070,7 +21070,7 @@
         </is>
       </c>
       <c r="C1147" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1147" t="inlineStr">
         <is>
@@ -21142,7 +21142,7 @@
         </is>
       </c>
       <c r="C1151" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1151" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="C1154" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1154" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         </is>
       </c>
       <c r="C1155" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1155" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         </is>
       </c>
       <c r="C1156" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1156" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         </is>
       </c>
       <c r="C1161" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1161" t="inlineStr">
         <is>
@@ -21358,7 +21358,7 @@
         </is>
       </c>
       <c r="C1163" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1163" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         </is>
       </c>
       <c r="C1164" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1164" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         </is>
       </c>
       <c r="C1165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1165" t="inlineStr">
         <is>
@@ -21412,7 +21412,7 @@
         </is>
       </c>
       <c r="C1166" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1166" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         </is>
       </c>
       <c r="C1169" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1169" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         </is>
       </c>
       <c r="C1171" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1171" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         </is>
       </c>
       <c r="C1172" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1172" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         </is>
       </c>
       <c r="C1173" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1173" t="inlineStr">
         <is>
@@ -21556,7 +21556,7 @@
         </is>
       </c>
       <c r="C1174" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1174" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         </is>
       </c>
       <c r="C1177" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1177" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         </is>
       </c>
       <c r="C1181" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1181" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         </is>
       </c>
       <c r="C1183" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1183" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         </is>
       </c>
       <c r="C1184" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1184" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         </is>
       </c>
       <c r="C1185" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1185" t="inlineStr">
         <is>
@@ -21772,7 +21772,7 @@
         </is>
       </c>
       <c r="C1186" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1186" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         </is>
       </c>
       <c r="C1188" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1188" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         </is>
       </c>
       <c r="C1190" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1190" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         </is>
       </c>
       <c r="C1194" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1194" t="inlineStr">
         <is>
@@ -21934,7 +21934,7 @@
         </is>
       </c>
       <c r="C1195" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1195" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         </is>
       </c>
       <c r="C1197" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1197" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         </is>
       </c>
       <c r="C1199" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1199" t="inlineStr">
         <is>
@@ -22024,7 +22024,7 @@
         </is>
       </c>
       <c r="C1200" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D1200" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         </is>
       </c>
       <c r="C1202" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1202" t="inlineStr">
         <is>
@@ -22078,7 +22078,7 @@
         </is>
       </c>
       <c r="C1203" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1203" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         </is>
       </c>
       <c r="C1209" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1209" t="inlineStr">
         <is>
@@ -22222,7 +22222,7 @@
         </is>
       </c>
       <c r="C1211" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1211" t="inlineStr">
         <is>
@@ -22258,7 +22258,7 @@
         </is>
       </c>
       <c r="C1213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1213" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         </is>
       </c>
       <c r="C1215" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1215" t="inlineStr">
         <is>
@@ -22366,7 +22366,7 @@
         </is>
       </c>
       <c r="C1219" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1219" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         </is>
       </c>
       <c r="C1220" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1220" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         </is>
       </c>
       <c r="C1221" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1221" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         </is>
       </c>
       <c r="C1223" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1223" t="inlineStr">
         <is>
@@ -22456,7 +22456,7 @@
         </is>
       </c>
       <c r="C1224" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1224" t="inlineStr">
         <is>
@@ -22474,7 +22474,7 @@
         </is>
       </c>
       <c r="C1225" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1225" t="inlineStr">
         <is>
@@ -22510,7 +22510,7 @@
         </is>
       </c>
       <c r="C1227" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1227" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="C1229" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1229" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         </is>
       </c>
       <c r="C1232" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1232" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         </is>
       </c>
       <c r="C1235" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1235" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         </is>
       </c>
       <c r="C1238" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1238" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         </is>
       </c>
       <c r="C1239" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1239" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         </is>
       </c>
       <c r="C1240" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1240" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         </is>
       </c>
       <c r="C1242" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1242" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         </is>
       </c>
       <c r="C1244" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1244" t="inlineStr">
         <is>
@@ -22852,7 +22852,7 @@
         </is>
       </c>
       <c r="C1246" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1246" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         </is>
       </c>
       <c r="C1250" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1250" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="C1254" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1254" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         </is>
       </c>
       <c r="C1267" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1267" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
         </is>
       </c>
       <c r="C1274" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1274" t="inlineStr">
         <is>
@@ -23374,7 +23374,7 @@
         </is>
       </c>
       <c r="C1275" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1275" t="inlineStr">
         <is>
@@ -23464,7 +23464,7 @@
         </is>
       </c>
       <c r="C1280" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1280" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         </is>
       </c>
       <c r="C1283" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1283" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         </is>
       </c>
       <c r="C1285" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1285" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         </is>
       </c>
       <c r="C1287" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1287" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         </is>
       </c>
       <c r="C1288" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1288" t="inlineStr">
         <is>
@@ -23680,7 +23680,7 @@
         </is>
       </c>
       <c r="C1292" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1292" t="inlineStr">
         <is>
@@ -23752,7 +23752,7 @@
         </is>
       </c>
       <c r="C1296" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1296" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         </is>
       </c>
       <c r="C1299" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1299" t="inlineStr">
         <is>
@@ -23824,7 +23824,7 @@
         </is>
       </c>
       <c r="C1300" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1300" t="inlineStr">
         <is>
@@ -23860,7 +23860,7 @@
         </is>
       </c>
       <c r="C1302" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1302" t="inlineStr">
         <is>
@@ -23878,7 +23878,7 @@
         </is>
       </c>
       <c r="C1303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1303" t="inlineStr">
         <is>
@@ -23914,7 +23914,7 @@
         </is>
       </c>
       <c r="C1305" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1305" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         </is>
       </c>
       <c r="C1310" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1310" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         </is>
       </c>
       <c r="C1314" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1314" t="inlineStr">
         <is>
@@ -24130,7 +24130,7 @@
         </is>
       </c>
       <c r="C1317" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1317" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         </is>
       </c>
       <c r="C1318" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1318" t="inlineStr">
         <is>
@@ -24166,7 +24166,7 @@
         </is>
       </c>
       <c r="C1319" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1319" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         </is>
       </c>
       <c r="C1322" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1322" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         </is>
       </c>
       <c r="C1323" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1323" t="inlineStr">
         <is>
@@ -24310,7 +24310,7 @@
         </is>
       </c>
       <c r="C1327" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1327" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         </is>
       </c>
       <c r="C1330" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1330" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         </is>
       </c>
       <c r="C1331" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1331" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         </is>
       </c>
       <c r="C1332" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1332" t="inlineStr">
         <is>
@@ -24418,7 +24418,7 @@
         </is>
       </c>
       <c r="C1333" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1333" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         </is>
       </c>
       <c r="C1347" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1347" t="inlineStr">
         <is>
@@ -24814,7 +24814,7 @@
         </is>
       </c>
       <c r="C1355" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1355" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         </is>
       </c>
       <c r="C1360" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1360" t="inlineStr">
         <is>
@@ -24976,7 +24976,7 @@
         </is>
       </c>
       <c r="C1364" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1364" t="inlineStr">
         <is>
@@ -24994,7 +24994,7 @@
         </is>
       </c>
       <c r="C1365" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1365" t="inlineStr">
         <is>
@@ -25084,7 +25084,7 @@
         </is>
       </c>
       <c r="C1370" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1370" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         </is>
       </c>
       <c r="C1372" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1372" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         </is>
       </c>
       <c r="C1373" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1373" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         </is>
       </c>
       <c r="C1374" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1374" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         </is>
       </c>
       <c r="C1376" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D1376" t="inlineStr">
         <is>
@@ -25210,7 +25210,7 @@
         </is>
       </c>
       <c r="C1377" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1377" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         </is>
       </c>
       <c r="C1385" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1385" t="inlineStr">
         <is>
@@ -25660,7 +25660,7 @@
         </is>
       </c>
       <c r="C1402" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1402" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="C1422" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1422" t="inlineStr">
         <is>
@@ -26056,7 +26056,7 @@
         </is>
       </c>
       <c r="C1424" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1424" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         </is>
       </c>
       <c r="C1428" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1428" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         </is>
       </c>
       <c r="C1430" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1430" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         </is>
       </c>
       <c r="C1434" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1434" t="inlineStr">
         <is>
@@ -26290,7 +26290,7 @@
         </is>
       </c>
       <c r="C1437" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1437" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         </is>
       </c>
       <c r="C1441" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1441" t="inlineStr">
         <is>
@@ -26380,7 +26380,7 @@
         </is>
       </c>
       <c r="C1442" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1442" t="inlineStr">
         <is>
@@ -26434,7 +26434,7 @@
         </is>
       </c>
       <c r="C1445" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1445" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         </is>
       </c>
       <c r="C1455" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1455" t="inlineStr">
         <is>
@@ -26704,7 +26704,7 @@
         </is>
       </c>
       <c r="C1460" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1460" t="inlineStr">
         <is>
@@ -26758,7 +26758,7 @@
         </is>
       </c>
       <c r="C1463" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1463" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         </is>
       </c>
       <c r="C1474" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1474" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         </is>
       </c>
       <c r="C1490" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1490" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
         </is>
       </c>
       <c r="C1497" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1497" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         </is>
       </c>
       <c r="C1505" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1505" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         </is>
       </c>
       <c r="C1539" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1539" t="inlineStr">
         <is>
@@ -28630,7 +28630,7 @@
         </is>
       </c>
       <c r="C1567" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1567" t="inlineStr">
         <is>
@@ -28918,7 +28918,7 @@
         </is>
       </c>
       <c r="C1583" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1583" t="inlineStr">
         <is>
@@ -28972,7 +28972,7 @@
         </is>
       </c>
       <c r="C1586" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1586" t="inlineStr">
         <is>
@@ -29134,7 +29134,7 @@
         </is>
       </c>
       <c r="C1595" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1595" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         </is>
       </c>
       <c r="C1597" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1597" t="inlineStr">
         <is>
@@ -29422,7 +29422,7 @@
         </is>
       </c>
       <c r="C1611" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1611" t="inlineStr">
         <is>
